--- a/Interface 문서/고객용_인터페이스설계서_V0.9_20200330.xlsx
+++ b/Interface 문서/고객용_인터페이스설계서_V0.9_20200330.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="2" r:id="rId1"/>
@@ -220,7 +220,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>회원가입</t>
+          <t>로그인</t>
         </r>
         <r>
           <rPr>
@@ -259,45 +259,6 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>로그인</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>실패</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-3 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
           <t>회원</t>
         </r>
         <r>
@@ -317,16 +278,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>아님</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+          <t>탈퇴</t>
         </r>
       </text>
     </comment>
@@ -43533,8 +43485,8 @@
   </sheetPr>
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -44060,7 +44012,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:15" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="57">
         <v>1</v>
       </c>
@@ -46109,7 +46061,7 @@
   </sheetPr>
   <dimension ref="B1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>

--- a/Interface 문서/고객용_인터페이스설계서_V0.9_20200330.xlsx
+++ b/Interface 문서/고객용_인터페이스설계서_V0.9_20200330.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" firstSheet="23" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="2" r:id="rId1"/>
@@ -2987,7 +2987,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="766">
   <si>
     <t>버전</t>
   </si>
@@ -4693,10 +4693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예약 가능 상태(Y/N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y/Y/Y/Y/Y/N/N/Y/Y/N/Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5537,6 +5533,38 @@
   </si>
   <si>
     <t>결재 응답 처리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVE_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약번호 (회원번호+년월시분초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGENT_STAUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 가능 상태(Y/N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대리점 예약가능 여부(Y/N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESERVE_STATUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8331,7 +8359,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -8454,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D24" s="62" t="s">
         <v>333</v>
@@ -8498,7 +8526,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D25" s="62" t="s">
         <v>385</v>
@@ -10006,7 +10034,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>251</v>
@@ -10094,7 +10122,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>292</v>
@@ -10138,7 +10166,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>246</v>
@@ -14777,7 +14805,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -14900,7 +14928,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>251</v>
@@ -14988,7 +15016,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>292</v>
@@ -15088,10 +15116,10 @@
         <v>5</v>
       </c>
       <c r="J28" s="110" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K28" s="62" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L28" s="62">
         <v>2000</v>
@@ -15120,13 +15148,13 @@
         <v>6</v>
       </c>
       <c r="J29" s="110" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K29" s="62" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L29" s="62" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M29" s="62" t="s">
         <v>232</v>
@@ -15247,7 +15275,7 @@
       </c>
       <c r="J33" s="110"/>
       <c r="K33" s="62" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L33" s="62"/>
       <c r="M33" s="62"/>
@@ -16443,7 +16471,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -16587,7 +16615,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K24" s="62" t="s">
         <v>234</v>
@@ -16631,7 +16659,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="62" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K25" s="62" t="s">
         <v>277</v>
@@ -16675,10 +16703,10 @@
         <v>3</v>
       </c>
       <c r="J26" s="127" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K26" s="62" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L26" s="62">
         <v>50000</v>
@@ -16730,10 +16758,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="58" t="s">
+        <v>670</v>
+      </c>
+      <c r="D28" s="58" t="s">
         <v>671</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>672</v>
       </c>
       <c r="E28" s="62">
         <v>11</v>
@@ -16762,10 +16790,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="58" t="s">
+        <v>672</v>
+      </c>
+      <c r="D29" s="58" t="s">
         <v>673</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>674</v>
       </c>
       <c r="E29" s="62">
         <v>11</v>
@@ -18057,7 +18085,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -18180,7 +18208,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>251</v>
@@ -18268,7 +18296,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>292</v>
@@ -18493,10 +18521,10 @@
         <v>9</v>
       </c>
       <c r="J32" s="110" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K32" s="62" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L32" s="62">
         <v>50000</v>
@@ -19719,7 +19747,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -19842,10 +19870,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E24" s="98">
         <v>1098761234</v>
@@ -19886,10 +19914,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="D25" s="58" t="s">
         <v>570</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>571</v>
       </c>
       <c r="E25" s="62">
         <v>21352</v>
@@ -19928,10 +19956,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E26" s="58">
         <v>1</v>
@@ -19960,10 +19988,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="58" t="s">
+        <v>566</v>
+      </c>
+      <c r="D27" s="58" t="s">
         <v>567</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>568</v>
       </c>
       <c r="E27" s="98" t="s">
         <v>329</v>
@@ -21292,7 +21320,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -21415,7 +21443,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>251</v>
@@ -21503,7 +21531,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>292</v>
@@ -21547,7 +21575,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>246</v>
@@ -21600,13 +21628,13 @@
         <v>5</v>
       </c>
       <c r="J28" s="110" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K28" s="62" t="s">
         <v>435</v>
       </c>
       <c r="L28" s="58" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M28" s="62" t="s">
         <v>232</v>
@@ -21632,13 +21660,13 @@
         <v>6</v>
       </c>
       <c r="J29" s="110" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K29" s="62" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L29" s="62" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M29" s="62" t="s">
         <v>232</v>
@@ -22917,7 +22945,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -23040,19 +23068,19 @@
         <v>1</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>334</v>
+        <v>759</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>333</v>
+        <v>758</v>
       </c>
       <c r="E24" s="62">
-        <v>21352</v>
+        <v>2.13522020040112E+18</v>
       </c>
       <c r="F24" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G24" s="63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H24" s="64" t="s">
         <v>140</v>
@@ -23079,24 +23107,24 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="2:15" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="57">
         <v>2</v>
       </c>
-      <c r="C25" s="58" t="s">
-        <v>714</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>715</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>716</v>
+      <c r="C25" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="62">
+        <v>21352</v>
       </c>
       <c r="F25" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G25" s="63">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H25" s="64" t="s">
         <v>140</v>
@@ -23128,19 +23156,19 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>592</v>
+        <v>713</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>707</v>
-      </c>
-      <c r="E26" s="58">
-        <v>2020</v>
+        <v>714</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>715</v>
       </c>
       <c r="F26" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G26" s="63">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H26" s="64" t="s">
         <v>140</v>
@@ -23149,10 +23177,10 @@
         <v>3</v>
       </c>
       <c r="J26" s="62" t="s">
+        <v>607</v>
+      </c>
+      <c r="K26" s="62" t="s">
         <v>608</v>
-      </c>
-      <c r="K26" s="62" t="s">
-        <v>609</v>
       </c>
       <c r="L26" s="108">
         <v>35670</v>
@@ -23172,19 +23200,19 @@
         <v>4</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E27" s="58">
-        <v>10</v>
+        <v>2020</v>
       </c>
       <c r="F27" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G27" s="63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="64" t="s">
         <v>140</v>
@@ -23204,13 +23232,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E28" s="58">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F28" s="62" t="s">
         <v>232</v>
@@ -23236,19 +23264,19 @@
         <v>6</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="E29" s="58">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F29" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G29" s="63">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H29" s="64" t="s">
         <v>140</v>
@@ -23268,19 +23296,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>593</v>
+        <v>540</v>
       </c>
       <c r="D30" s="58" t="s">
         <v>596</v>
       </c>
-      <c r="E30" s="62" t="s">
-        <v>357</v>
+      <c r="E30" s="58">
+        <v>1</v>
       </c>
       <c r="F30" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G30" s="63">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H30" s="64" t="s">
         <v>140</v>
@@ -23300,19 +23328,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>595</v>
       </c>
-      <c r="E31" s="129">
-        <v>0.45833333333333331</v>
+      <c r="E31" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="F31" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G31" s="63">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H31" s="64" t="s">
         <v>140</v>
@@ -23332,19 +23360,19 @@
         <v>9</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>439</v>
-      </c>
-      <c r="E32" s="58">
-        <v>1</v>
+        <v>594</v>
+      </c>
+      <c r="E32" s="129">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F32" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G32" s="63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H32" s="64" t="s">
         <v>140</v>
@@ -23364,21 +23392,23 @@
         <v>10</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>440</v>
-      </c>
-      <c r="E33" s="58" t="s">
-        <v>599</v>
+        <v>439</v>
+      </c>
+      <c r="E33" s="58">
+        <v>1</v>
       </c>
       <c r="F33" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G33" s="63">
-        <v>100</v>
-      </c>
-      <c r="H33" s="64"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>140</v>
+      </c>
       <c r="I33" s="61">
         <v>10</v>
       </c>
@@ -23394,23 +23424,21 @@
         <v>11</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>424</v>
+        <v>598</v>
       </c>
       <c r="F34" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G34" s="63">
-        <v>20</v>
-      </c>
-      <c r="H34" s="64" t="s">
-        <v>140</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H34" s="64"/>
       <c r="I34" s="60">
         <v>11</v>
       </c>
@@ -23426,13 +23454,13 @@
         <v>12</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F35" s="62" t="s">
         <v>232</v>
@@ -23458,13 +23486,13 @@
         <v>13</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F36" s="62" t="s">
         <v>232</v>
@@ -23490,19 +23518,19 @@
         <v>14</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>465</v>
-      </c>
-      <c r="E37" s="58">
-        <v>0</v>
+        <v>438</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>426</v>
       </c>
       <c r="F37" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G37" s="63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H37" s="64" t="s">
         <v>140</v>
@@ -23522,13 +23550,13 @@
         <v>15</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="E38" s="58">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F38" s="62" t="s">
         <v>232</v>
@@ -23536,7 +23564,9 @@
       <c r="G38" s="63">
         <v>10</v>
       </c>
-      <c r="H38" s="64"/>
+      <c r="H38" s="64" t="s">
+        <v>140</v>
+      </c>
       <c r="I38" s="60">
         <v>15</v>
       </c>
@@ -23552,23 +23582,21 @@
         <v>16</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E39" s="58">
-        <v>56000</v>
+        <v>12</v>
       </c>
       <c r="F39" s="62" t="s">
         <v>232</v>
       </c>
       <c r="G39" s="63">
-        <v>32</v>
-      </c>
-      <c r="H39" s="64" t="s">
-        <v>140</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H39" s="64"/>
       <c r="I39" s="61">
         <v>16</v>
       </c>
@@ -23583,12 +23611,24 @@
       <c r="B40" s="57">
         <v>17</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="64"/>
+      <c r="C40" s="58" t="s">
+        <v>606</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>442</v>
+      </c>
+      <c r="E40" s="58">
+        <v>56000</v>
+      </c>
+      <c r="F40" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" s="63">
+        <v>20</v>
+      </c>
+      <c r="H40" s="64" t="s">
+        <v>140</v>
+      </c>
       <c r="I40" s="60">
         <v>17</v>
       </c>
@@ -24339,13 +24379,13 @@
     <row r="7" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>755</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>756</v>
-      </c>
       <c r="D7" s="22" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>144</v>
@@ -24355,13 +24395,13 @@
     <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C8" s="21">
         <v>43920</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>144</v>
@@ -29627,7 +29667,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -29794,7 +29834,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>251</v>
@@ -31178,7 +31218,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -31322,7 +31362,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K24" s="62" t="s">
         <v>335</v>
@@ -32054,7 +32094,7 @@
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="174" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E6" s="175"/>
       <c r="F6" s="175"/>
@@ -32339,7 +32379,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -32462,7 +32502,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>251</v>
@@ -32550,7 +32590,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>292</v>
@@ -32594,7 +32634,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>246</v>
@@ -32647,10 +32687,10 @@
         <v>5</v>
       </c>
       <c r="J28" s="110" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K28" s="62" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L28" s="62" t="s">
         <v>339</v>
@@ -32679,7 +32719,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="110" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K29" s="62" t="s">
         <v>336</v>
@@ -32711,7 +32751,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="110" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K30" s="62" t="s">
         <v>337</v>
@@ -32743,7 +32783,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="110" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K31" s="62" t="s">
         <v>338</v>
@@ -33602,7 +33642,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -33746,10 +33786,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="122" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K24" s="62" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L24" s="62">
         <v>1</v>
@@ -33790,10 +33830,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="122" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K25" s="62" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L25" s="58" t="s">
         <v>424</v>
@@ -33822,13 +33862,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="122" t="s">
+        <v>732</v>
+      </c>
+      <c r="K26" s="62" t="s">
+        <v>726</v>
+      </c>
+      <c r="L26" s="58" t="s">
         <v>733</v>
-      </c>
-      <c r="K26" s="62" t="s">
-        <v>727</v>
-      </c>
-      <c r="L26" s="58" t="s">
-        <v>734</v>
       </c>
       <c r="M26" s="62" t="s">
         <v>232</v>
@@ -33854,13 +33894,13 @@
         <v>4</v>
       </c>
       <c r="J27" s="122" t="s">
+        <v>734</v>
+      </c>
+      <c r="K27" s="62" t="s">
+        <v>728</v>
+      </c>
+      <c r="L27" s="58" t="s">
         <v>735</v>
-      </c>
-      <c r="K27" s="62" t="s">
-        <v>729</v>
-      </c>
-      <c r="L27" s="58" t="s">
-        <v>736</v>
       </c>
       <c r="M27" s="62" t="s">
         <v>232</v>
@@ -33886,10 +33926,10 @@
         <v>5</v>
       </c>
       <c r="J28" s="122" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K28" s="62" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L28" s="62">
         <v>50000</v>
@@ -34855,7 +34895,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -35022,7 +35062,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>511</v>
@@ -35066,7 +35106,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>292</v>
@@ -35087,13 +35127,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="110" t="s">
+        <v>698</v>
+      </c>
+      <c r="K26" s="62" t="s">
         <v>699</v>
       </c>
-      <c r="K26" s="62" t="s">
-        <v>700</v>
-      </c>
       <c r="L26" s="62" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M26" s="62" t="s">
         <v>288</v>
@@ -35110,7 +35150,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>246</v>
@@ -35134,10 +35174,10 @@
         <v>513</v>
       </c>
       <c r="K27" s="62" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L27" s="62" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M27" s="62" t="s">
         <v>232</v>
@@ -35668,7 +35708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -35787,7 +35829,7 @@
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="174" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E6" s="175"/>
       <c r="F6" s="175"/>
@@ -36072,7 +36114,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -36216,7 +36258,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K24" s="62" t="s">
         <v>247</v>
@@ -36260,7 +36302,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="62" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K25" s="62" t="s">
         <v>300</v>
@@ -36283,7 +36325,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>546</v>
@@ -36304,7 +36346,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="62" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K26" s="62" t="s">
         <v>301</v>
@@ -36327,7 +36369,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>292</v>
@@ -36371,7 +36413,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>246</v>
@@ -36456,25 +36498,25 @@
         <v>7</v>
       </c>
       <c r="J30" s="110" t="s">
-        <v>523</v>
+        <v>761</v>
       </c>
       <c r="K30" s="62" t="s">
-        <v>520</v>
+        <v>763</v>
       </c>
       <c r="L30" s="62" t="s">
-        <v>525</v>
+        <v>764</v>
       </c>
       <c r="M30" s="62" t="s">
         <v>232</v>
       </c>
       <c r="N30" s="63">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O30" s="64" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="2:15" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="57">
         <v>8</v>
       </c>
@@ -36488,13 +36530,13 @@
         <v>8</v>
       </c>
       <c r="J31" s="110" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="K31" s="62" t="s">
-        <v>739</v>
-      </c>
-      <c r="L31" s="118" t="s">
-        <v>547</v>
+        <v>520</v>
+      </c>
+      <c r="L31" s="62" t="s">
+        <v>525</v>
       </c>
       <c r="M31" s="62" t="s">
         <v>232</v>
@@ -36520,17 +36562,23 @@
         <v>9</v>
       </c>
       <c r="J32" s="110" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="K32" s="62" t="s">
-        <v>548</v>
-      </c>
-      <c r="L32" s="62" t="s">
-        <v>549</v>
-      </c>
-      <c r="M32" s="62"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="64"/>
+        <v>738</v>
+      </c>
+      <c r="L32" s="118" t="s">
+        <v>547</v>
+      </c>
+      <c r="M32" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="N32" s="63">
+        <v>100</v>
+      </c>
+      <c r="O32" s="64" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="33" spans="2:15" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="57">
@@ -36545,12 +36593,24 @@
       <c r="I33" s="61">
         <v>10</v>
       </c>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="64"/>
+      <c r="J33" s="110" t="s">
+        <v>765</v>
+      </c>
+      <c r="K33" s="62" t="s">
+        <v>762</v>
+      </c>
+      <c r="L33" s="62" t="s">
+        <v>548</v>
+      </c>
+      <c r="M33" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="N33" s="63">
+        <v>50</v>
+      </c>
+      <c r="O33" s="64" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="34" spans="2:15" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="57">
@@ -36565,7 +36625,7 @@
       <c r="I34" s="60">
         <v>11</v>
       </c>
-      <c r="J34" s="62"/>
+      <c r="J34" s="110"/>
       <c r="K34" s="62"/>
       <c r="L34" s="62"/>
       <c r="M34" s="62"/>
@@ -37068,7 +37128,7 @@
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="174" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E6" s="175"/>
       <c r="F6" s="175"/>
@@ -37353,7 +37413,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -37476,7 +37536,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>251</v>
@@ -37497,10 +37557,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K24" s="100" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L24" s="62" t="s">
         <v>271</v>
@@ -37520,13 +37580,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F25" s="58" t="s">
         <v>232</v>
@@ -37541,7 +37601,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="62" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K25" s="101" t="s">
         <v>273</v>
@@ -37562,13 +37622,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F26" s="58" t="s">
         <v>232</v>
@@ -37594,10 +37654,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E27" s="58"/>
       <c r="F27" s="58" t="s">
@@ -37624,13 +37684,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F28" s="58" t="s">
         <v>232</v>
@@ -37656,13 +37716,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F29" s="58" t="s">
         <v>232</v>
@@ -37688,13 +37748,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F30" s="58" t="s">
         <v>232</v>
@@ -37720,13 +37780,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="E31" s="58" t="s">
         <v>634</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>629</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>635</v>
       </c>
       <c r="F31" s="58" t="s">
         <v>232</v>
@@ -38183,8 +38243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -38249,7 +38309,7 @@
         <v>252</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="36"/>
@@ -38268,7 +38328,7 @@
         <v>261</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>262</v>
@@ -38290,10 +38350,10 @@
         <v>264</v>
       </c>
       <c r="C6" s="142" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D6" s="143" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E6" s="142"/>
       <c r="F6" s="142"/>
@@ -38334,10 +38394,10 @@
         <v>282</v>
       </c>
       <c r="C8" s="37" t="s">
+        <v>665</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>666</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>667</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
@@ -38359,7 +38419,7 @@
         <v>361</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
@@ -38381,7 +38441,7 @@
         <v>371</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="91"/>
@@ -38403,7 +38463,7 @@
         <v>373</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="91"/>
@@ -38425,7 +38485,7 @@
         <v>388</v>
       </c>
       <c r="D12" s="146" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E12" s="142"/>
       <c r="F12" s="146"/>
@@ -38447,7 +38507,7 @@
         <v>387</v>
       </c>
       <c r="D13" s="146" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E13" s="142"/>
       <c r="F13" s="146"/>
@@ -38516,7 +38576,7 @@
         <v>427</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="91"/>
@@ -38560,7 +38620,7 @@
         <v>429</v>
       </c>
       <c r="D18" s="148" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E18" s="149"/>
       <c r="F18" s="148"/>
@@ -38604,7 +38664,7 @@
         <v>443</v>
       </c>
       <c r="D20" s="148" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E20" s="149"/>
       <c r="F20" s="148"/>
@@ -38626,7 +38686,7 @@
         <v>444</v>
       </c>
       <c r="D21" s="148" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E21" s="149"/>
       <c r="F21" s="148"/>
@@ -38648,7 +38708,7 @@
         <v>445</v>
       </c>
       <c r="D22" s="146" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E22" s="142"/>
       <c r="F22" s="146"/>
@@ -38708,7 +38768,7 @@
     </row>
     <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="120" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C25" s="91" t="s">
         <v>470</v>
@@ -38730,13 +38790,13 @@
     </row>
     <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="128" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C26" s="91" t="s">
+        <v>574</v>
+      </c>
+      <c r="D26" s="91" t="s">
         <v>575</v>
-      </c>
-      <c r="D26" s="91" t="s">
-        <v>576</v>
       </c>
       <c r="E26" s="91"/>
       <c r="F26" s="91"/>
@@ -38752,7 +38812,7 @@
     </row>
     <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="120" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C27" s="91" t="s">
         <v>508</v>
@@ -38774,7 +38834,7 @@
     </row>
     <row r="28" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="120" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C28" s="91" t="s">
         <v>516</v>
@@ -38796,13 +38856,13 @@
     </row>
     <row r="29" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="120" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E29" s="91"/>
       <c r="F29" s="91"/>
@@ -38818,13 +38878,13 @@
     </row>
     <row r="30" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="120" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E30" s="91"/>
       <c r="F30" s="91"/>
@@ -38840,13 +38900,13 @@
     </row>
     <row r="31" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="120" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C31" s="91" t="s">
+        <v>744</v>
+      </c>
+      <c r="D31" s="91" t="s">
         <v>745</v>
-      </c>
-      <c r="D31" s="91" t="s">
-        <v>746</v>
       </c>
       <c r="E31" s="91"/>
       <c r="F31" s="91"/>
@@ -39134,7 +39194,7 @@
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="174" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E6" s="175"/>
       <c r="F6" s="175"/>
@@ -39339,7 +39399,7 @@
       </c>
       <c r="C15" s="200"/>
       <c r="D15" s="185" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E15" s="186"/>
       <c r="F15" s="186"/>
@@ -39421,7 +39481,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -39544,10 +39604,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E24" s="62">
         <v>21352</v>
@@ -39565,7 +39625,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K24" s="62" t="s">
         <v>234</v>
@@ -39588,10 +39648,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="58" t="s">
+        <v>685</v>
+      </c>
+      <c r="D25" s="58" t="s">
         <v>686</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>687</v>
       </c>
       <c r="E25" s="58">
         <v>11</v>
@@ -40165,7 +40225,7 @@
   <dimension ref="B1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40174,7 +40234,7 @@
     <col min="2" max="2" width="6.109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" style="35" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="35" customWidth="1"/>
     <col min="6" max="6" width="6.77734375" style="35" customWidth="1"/>
     <col min="7" max="8" width="6.77734375" style="71" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" style="72" customWidth="1"/>
@@ -40288,7 +40348,7 @@
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="174" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E6" s="175"/>
       <c r="F6" s="175"/>
@@ -40493,7 +40553,7 @@
       </c>
       <c r="C15" s="200"/>
       <c r="D15" s="185" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E15" s="186"/>
       <c r="F15" s="186"/>
@@ -40575,7 +40635,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -40698,10 +40758,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="62" t="s">
+        <v>569</v>
+      </c>
+      <c r="D24" s="62" t="s">
         <v>570</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>571</v>
       </c>
       <c r="E24" s="62">
         <v>21352</v>
@@ -40719,13 +40779,13 @@
         <v>1</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K24" s="62" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L24" s="62" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M24" s="62" t="s">
         <v>232</v>
@@ -40742,10 +40802,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="58" t="s">
+        <v>748</v>
+      </c>
+      <c r="D25" s="58" t="s">
         <v>749</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>750</v>
       </c>
       <c r="E25" s="58">
         <v>50000</v>
@@ -40763,7 +40823,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="62" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K25" s="62" t="s">
         <v>277</v>
@@ -40783,12 +40843,24 @@
       <c r="B26" s="57">
         <v>3</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
+      <c r="C26" s="62" t="s">
+        <v>759</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>760</v>
+      </c>
+      <c r="E26" s="62">
+        <v>2.13522020040113E+18</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="63">
+        <v>20</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>140</v>
+      </c>
       <c r="I26" s="60">
         <v>3</v>
       </c>
@@ -41307,7 +41379,8 @@
     <hyperlink ref="B1" location="'인터페이스 목록'!A1" display="목록"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -43485,8 +43558,8 @@
   </sheetPr>
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:L28"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -43894,7 +43967,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -44017,7 +44090,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>251</v>
@@ -44038,7 +44111,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K24" s="62" t="s">
         <v>281</v>
@@ -44061,7 +44134,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>243</v>
@@ -44294,10 +44367,10 @@
         <v>9</v>
       </c>
       <c r="J32" s="62" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K32" s="62" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L32" s="62" t="s">
         <v>370</v>
@@ -44327,7 +44400,7 @@
         <v>316</v>
       </c>
       <c r="K33" s="130" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L33" s="131" t="s">
         <v>318</v>
@@ -44414,10 +44487,10 @@
         <v>13</v>
       </c>
       <c r="J36" s="62" t="s">
+        <v>559</v>
+      </c>
+      <c r="K36" s="62" t="s">
         <v>560</v>
-      </c>
-      <c r="K36" s="62" t="s">
-        <v>561</v>
       </c>
       <c r="L36" s="108">
         <v>35670</v>
@@ -44444,10 +44517,10 @@
         <v>14</v>
       </c>
       <c r="J37" s="62" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K37" s="62" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L37" s="62">
         <v>7</v>
@@ -44474,10 +44547,10 @@
         <v>15</v>
       </c>
       <c r="J38" s="62" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K38" s="62" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L38" s="62">
         <v>7</v>
@@ -44504,7 +44577,7 @@
         <v>16</v>
       </c>
       <c r="J39" s="62" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K39" s="62" t="s">
         <v>335</v>
@@ -44594,7 +44667,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="110" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K42" s="62" t="s">
         <v>503</v>
@@ -44658,7 +44731,7 @@
         <v>21</v>
       </c>
       <c r="J44" s="110" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K44" s="62" t="s">
         <v>503</v>
@@ -44754,10 +44827,10 @@
         <v>24</v>
       </c>
       <c r="J47" s="110" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K47" s="62" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L47" s="62">
         <v>50000</v>
@@ -44787,7 +44860,7 @@
       </c>
       <c r="J48" s="62"/>
       <c r="K48" s="62" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L48" s="62"/>
       <c r="M48" s="62"/>
@@ -45025,7 +45098,7 @@
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="174" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E6" s="175"/>
       <c r="F6" s="175"/>
@@ -45312,7 +45385,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -45435,7 +45508,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>251</v>
@@ -45456,7 +45529,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K24" s="100" t="s">
         <v>270</v>
@@ -45488,7 +45561,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="62" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K25" s="101" t="s">
         <v>273</v>
@@ -45520,10 +45593,10 @@
         <v>3</v>
       </c>
       <c r="J26" s="122" t="s">
+        <v>611</v>
+      </c>
+      <c r="K26" s="62" t="s">
         <v>612</v>
-      </c>
-      <c r="K26" s="62" t="s">
-        <v>613</v>
       </c>
       <c r="L26" s="62">
         <v>123456</v>
@@ -47618,7 +47691,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -47741,10 +47814,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E24" s="58" t="s">
         <v>244</v>
@@ -47762,7 +47835,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K24" s="62" t="s">
         <v>234</v>
@@ -47785,10 +47858,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E25" s="62">
         <v>21352</v>
@@ -48773,7 +48846,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -48894,7 +48967,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D24" s="62" t="s">
         <v>333</v>
@@ -48915,7 +48988,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K24" s="62" t="s">
         <v>247</v>
@@ -48938,7 +49011,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>292</v>
@@ -48982,7 +49055,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>246</v>
@@ -50122,7 +50195,7 @@
       </c>
       <c r="C19" s="211"/>
       <c r="D19" s="212" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E19" s="213"/>
       <c r="F19" s="213"/>
@@ -50245,7 +50318,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D24" s="62" t="s">
         <v>293</v>
